--- a/Dyck 1 Counter/Dyck1_Counter_9_early_stopping_Clipping_L1.xlsx
+++ b/Dyck 1 Counter/Dyck1_Counter_9_early_stopping_Clipping_L1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>epochs</t>
   </si>
@@ -102,6 +102,9 @@
   <si>
     <t>[[ 1.  1.]
  [-1. -1.]]</t>
+  </si>
+  <si>
+    <t>No training occurred</t>
   </si>
 </sst>
 </file>
@@ -591,11 +594,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>100</v>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Dyck 1 Counter/Dyck1_Counter_9_early_stopping_Clipping_L1.xlsx
+++ b/Dyck 1 Counter/Dyck1_Counter_9_early_stopping_Clipping_L1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>epochs</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>epoch accuracies</t>
+  </si>
+  <si>
+    <t>all epoch incorrect guesses</t>
   </si>
   <si>
     <t>[0. 1.]</t>
@@ -104,7 +107,7 @@
  [-1. -1.]]</t>
   </si>
   <si>
-    <t>No training occurred</t>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -462,13 +465,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,8 +535,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -541,64 +547,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>100</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
